--- a/biology/Zoologie/Association_fédérale_des_chiens_de_sauvetage/Association_fédérale_des_chiens_de_sauvetage.xlsx
+++ b/biology/Zoologie/Association_fédérale_des_chiens_de_sauvetage/Association_fédérale_des_chiens_de_sauvetage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bundesverband Rettungshunde
 La BRH Bundesverband Rettungshunde e.V. ou BRH, que l’on peut traduire en français par « Association fédérale des chiens de sauvetage » est l’association allemande de chiens de sauvetage, la plus ancienne et la plus importante dans le monde.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>L’association</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bundesluftschutzverband (que l’on peut traduire par Association fédérale de protection de l’espace aérien) a été créée en 1954 en Allemagne de l’Ouest, à la demande du ministre de l’Intérieur, afin de former les chiens de sauvetage à la recherche dans les décombres. Ces équipes de chiens de sauvetage ont ensuite été assignées à la protection civile du Bund. La Bundesverband für den Selbstschutz ou BVS (Association fédérale pour l’autoprotection) s’est occupée du dressage de ces chiens dans les années 60. Le ministère de l’Intérieur a arrêté en 1973 le dressage des chiens de sauvetage pour des raisons financières et parce que les autorités fédérales se servaient de plus en plus des nouveaux dispositifs de localisation électroniques.
 Certains dresseurs ont fondé en 1974 et 1975 les unités canines de chiens de sauvetage d’Heilbroon (Pays-Bas), d’Ulm, de Rottweil et de Pforzheim (Enzkreis). En Rhénanie-Palatinat et dans la Hesse, il n’y avait en effet que quelques chiens de sauvetage attachés aux sapeurs-pompiers. L’association a créé en 1976 des équipes de chiens de sauvetage privées exclusivement dans le Bade-Wurtemberg. Après la création de deux équipes de chiens de sauvetage privé dans la Hesse et une autre en Nord-Westphalie, l’Association pour les chiens de sauvetage dans le Bade-Wurtemberg est devenue l’Association fédérale pour les chiens de sauvetage (BRH) grâce à une modification de statut. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Affiliation aux associations et organisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La BRH est membre des associations et organisations énoncées ci-dessous :
 La Deutscher Paritätischer Wohlfahrtsverband / Parität International depuis 1983
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Coopération</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La BRH coopère avec :
 La Garde aérienne allemande (DRF)
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Organisation de l’association</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve à la base de l’association BRH les équipes de chiens de sauvetage et les dresseurs qui élisent une fois par an, lors de la journée dédiée à l’association, le conseil d’administration, les comités et groupes fonctionnels qui décident à leur tour du statut et des règlements adoptés par l’association. 
 L’association est constituée d’un organisme directeur (composé d’un président et d’un vice-président), d’un service administratif et d’un juge-arbitre-en-chef.
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Centres de formation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> La BRH investit principalement dans la formation de base du dresseur et de son chien, dans une optique d’amélioration des qualifications des équipes de recherches dans les décombres intervenant lors des situations d’urgence. L’objectif est de créer des centres de formation au niveau régional, dans les länder environnants, afin de fournir des infrastructures adaptées aux missions de la BRH. Actuellement, les centres de formation appartenant à la BRH se situent dans l'Ouest (Hünxe), dans le Nord (Malchin) et dans le Sud de l’Allemagne. La BRH est le leader mondial en termes de nombre de centres de formation créés pour les chiens de sauvetage et s’est spécialisée dans le domaine de Search &amp; Rescue (Recherche &amp; Sauvetage). La BRH considère que la création des centres de formation est d’utilité publique puisque l’association est active en matière de prévention de catastrophe et de protection civile. Les autorités, les organisations chargées de la sécurité civile et les services spécialisés d’autres organismes humanitaires bénéficient des investissements effectués par la BRH, car la formation  sur le terrain, développée par la BRH, prévoit de nombreux scénarios. 
 </t>
@@ -669,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,7 +709,9 @@
           <t>Les races de chien utilisées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe pas de races prédisposées aux missions de sauvetage. C’est pourquoi on peut trouver à la BRH un large éventail de races ainsi que des corniauds. Le caractère, l’enthousiasme et la performance du chien sont les principaux critères de sélection. En règle générale, tous les chiens de taille moyenne réunissent ces conditions.  
 </t>
@@ -700,7 +724,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -718,7 +742,9 @@
           <t>Maître-chien sauveteur</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">À cause de l’effort demandé à l’homme et au chien lors des missions de secours, les maîtres-chiens et les sauveteurs doivent posséder certaines compétences qui sont régulièrement évaluées. Mis à part vouloir faire partie des secours et savoir dresser un chien, ils doivent aussi posséder des connaissances pratiques et théoriques sur des thèmes en lien avec différents types d’intervention, notamment : orientation sur le terrain, tactique d’intervention, utilisation d’une radio, évaluation des dommages, gestion d’intervention et gestes de premier secours pour hommes et canidés.   
 </t>
@@ -731,7 +757,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -749,7 +775,9 @@
           <t>Formation et examen</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation est assurée dans les unités de chiens sauveteurs par des formateurs certifiés par l’association et des sessions de formations inter régionales. Il faut tout d’abord obtenir obligatoirement un diplôme de dressage (Begleithundeprüfung) selon les normes de la VDH (Verband für das Deusche Hundewesen, équivalent de la SCC). Après un examen d’admissibilité, l’épreuve principale consiste à trouver une cible dans un secteur et dans des décombres. Les mantrailers ou chiens de recherche utilitaire ont une formation à part.
 De plus, les examens peuvent être accomplis selon les normes internationales de la FCI dans toutes les catégories (pistage, recherche de surface, dans les décombres, dans les avalanches). Les membres du jury à l’examen ne font pas partie de la même unité que les candidats.  
@@ -763,7 +791,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Association_f%C3%A9d%C3%A9rale_des_chiens_de_sauvetage</t>
+          <t>Association_fédérale_des_chiens_de_sauvetage</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -781,7 +809,9 @@
           <t>Mise en alerte et intervention</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les alertes locales et inter régionales sont transmises aux unités des chiens de sauvetage les plus proches par la police, les pompiers et autres organisations de secours. Pour les interventions à l’étranger, les alertes sont retransmises au centre de commandement de la BRH. Ces interventions sont gratuites pour les victimes.
 Le BRH fait partie au plan de protection des populations lors de catastropheS au niveau des Lands (par exemple Bade-Wurtemberg, la Saxe) et/ou au plan de protection au niveau des diverses circonscriptions (par exemple Hesse, la Bavière, la Rhénanie-du-Nord-Westphalie, la Basse-Saxe). S’ajoute un contrat de coopération avec certains ministres de l’Intérieur de Land (par exemple Hesse) pour soutenir les recherches des policiers dans le cas de personnes disparues. Pour cela, la police du Land et/ou les unités canines de la police doivent évaluer à leur tour les chiens de sauvetage et leurs maîtres.
